--- a/data/Produccion Por Cultivo.xlsx
+++ b/data/Produccion Por Cultivo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scame\Mi unidad\Colab Notebooks\ProyectoStreamlit\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scame\Documents\GitHub\ProyectoStreamlit\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A55FE0-ACFB-4F01-9508-D51B6294DF32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E34BB9B-943D-4FE5-B24E-1F860599476D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{798BA3E7-3E0A-45B2-B12C-7554912B409B}"/>
+    <workbookView xWindow="28680" yWindow="1695" windowWidth="29040" windowHeight="15720" xr2:uid="{798BA3E7-3E0A-45B2-B12C-7554912B409B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="67">
   <si>
     <t>Cultivo</t>
   </si>
@@ -202,13 +202,46 @@
   </si>
   <si>
     <t>Pinos Maíz2 24/25</t>
+  </si>
+  <si>
+    <t>Pinos Trigo 24/25</t>
+  </si>
+  <si>
+    <t>Trigo</t>
+  </si>
+  <si>
+    <t>Desmonte Colza 24/25</t>
+  </si>
+  <si>
+    <t>Colza</t>
+  </si>
+  <si>
+    <t>Riachuelo Carinata 24/25</t>
+  </si>
+  <si>
+    <t>Carinata</t>
+  </si>
+  <si>
+    <t>Frente Julian Carinata 24/25</t>
+  </si>
+  <si>
+    <t>Papero Frente Colza 24/25</t>
+  </si>
+  <si>
+    <t>Vasco Colza 24/25</t>
+  </si>
+  <si>
+    <t>Esquina Colza 24/25</t>
+  </si>
+  <si>
+    <t>Martin Largo Colza 24/25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,16 +265,315 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -264,25 +596,214 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -594,10 +1115,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2DD8201-64D3-4A74-B44F-4EADC8B2E5F0}">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2:M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,782 +1170,1110 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3">
+        <v>104</v>
+      </c>
+      <c r="F2" s="3">
+        <v>104</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3">
+        <v>566.20000000000005</v>
+      </c>
+      <c r="I2" s="3">
+        <v>5.44</v>
+      </c>
+      <c r="J2" s="3">
+        <v>566.02</v>
+      </c>
+      <c r="K2" s="3">
+        <v>5.44</v>
+      </c>
+      <c r="L2" s="3">
+        <v>547.76</v>
+      </c>
+      <c r="M2" s="3">
+        <v>5.27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E3" s="3">
         <v>101</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F3" s="3">
         <v>101</v>
       </c>
-      <c r="G2" s="3">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2">
+      <c r="G3" s="4">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3">
         <v>824.45</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I3" s="3">
         <v>8.16</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J3" s="3">
         <v>818.27</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K3" s="3">
         <v>8.1</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L3" s="3">
         <v>782.36</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M3" s="3">
         <v>7.75</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E4" s="3">
         <v>33</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F4" s="3">
         <v>33</v>
       </c>
-      <c r="G3" s="3">
-        <v>1</v>
-      </c>
-      <c r="H3" s="2">
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
         <v>136.80000000000001</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I4" s="3">
         <v>4.1500000000000004</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J4" s="3">
         <v>135.41999999999999</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K4" s="3">
         <v>4.0999999999999996</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L4" s="3">
         <v>133.85</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M4" s="3">
         <v>4.0599999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E5" s="3">
         <v>51</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F5" s="3">
         <v>51</v>
       </c>
-      <c r="G4" s="3">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2">
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3">
         <v>200.5</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I5" s="3">
         <v>3.93</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J5" s="3">
         <v>200.04</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K5" s="3">
         <v>3.92</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L5" s="3">
         <v>200.61</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M5" s="3">
         <v>3.93</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="3">
+        <v>37</v>
+      </c>
+      <c r="F6" s="3">
+        <v>36</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="H6" s="3">
+        <v>44</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1.22</v>
+      </c>
+      <c r="J6" s="3">
+        <v>44</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1.22</v>
+      </c>
+      <c r="L6" s="3">
+        <v>42.17</v>
+      </c>
+      <c r="M6" s="3">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E7" s="3">
         <v>136</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F7" s="3">
         <v>136</v>
       </c>
-      <c r="G5" s="3">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2">
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3">
         <v>611.79999999999995</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I7" s="3">
         <v>4.5</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J7" s="3">
         <v>608.09</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K7" s="3">
         <v>4.47</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L7" s="3">
         <v>584.6</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M7" s="3">
         <v>4.3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E8" s="3">
         <v>30</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F8" s="3">
         <v>30</v>
       </c>
-      <c r="G6" s="3">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3">
         <v>120.5</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I8" s="3">
         <v>4.0199999999999996</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J8" s="3">
         <v>122.07</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K8" s="3">
         <v>4.07</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L8" s="3">
         <v>120.25</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M8" s="3">
         <v>4.01</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="9" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="3">
+        <v>81</v>
+      </c>
+      <c r="F9" s="3">
+        <v>81</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>150</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1.85</v>
+      </c>
+      <c r="J9" s="3">
+        <v>150</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1.85</v>
+      </c>
+      <c r="L9" s="3">
+        <v>144.53</v>
+      </c>
+      <c r="M9" s="3">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E10" s="3">
         <v>81</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F10" s="3">
         <v>81</v>
       </c>
-      <c r="G7" s="3">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2">
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3">
         <v>251.3</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I10" s="3">
         <v>3.1</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J10" s="3">
         <v>251.76</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K10" s="3">
         <v>3.11</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L10" s="3">
         <v>242.38</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M10" s="3">
         <v>2.99</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E11" s="3">
         <v>20</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F11" s="3">
         <v>20</v>
       </c>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2">
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3">
         <v>162.86000000000001</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I11" s="3">
         <v>8.14</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J11" s="3">
         <v>161.91999999999999</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K11" s="3">
         <v>8.1</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L11" s="3">
         <v>156.91</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M11" s="3">
         <v>7.85</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E12" s="3">
         <v>8</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F12" s="3">
         <v>8</v>
       </c>
-      <c r="G9" s="3">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2">
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3">
         <v>35.9</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I12" s="3">
         <v>4.49</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J12" s="3">
         <v>36.340000000000003</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K12" s="3">
         <v>4.54</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L12" s="3">
         <v>35.93</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M12" s="3">
         <v>4.49</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E13" s="3">
         <v>10</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F13" s="3">
         <v>10</v>
       </c>
-      <c r="G10" s="3">
-        <v>1</v>
-      </c>
-      <c r="H10" s="2">
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3">
         <v>33.4</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I13" s="3">
         <v>3.34</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J13" s="3">
         <v>32.28</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K13" s="3">
         <v>3.23</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L13" s="3">
         <v>31.74</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M13" s="3">
         <v>3.17</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E14" s="3">
         <v>117</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F14" s="3">
         <v>117</v>
       </c>
-      <c r="G11" s="3">
-        <v>1</v>
-      </c>
-      <c r="H11" s="2">
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3">
         <v>455.05</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I14" s="3">
         <v>3.89</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J14" s="3">
         <v>452.88</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K14" s="3">
         <v>3.87</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L14" s="3">
         <v>450.62</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M14" s="3">
         <v>3.85</v>
       </c>
-      <c r="N11" s="4"/>
-    </row>
-    <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="B15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E15" s="3">
         <v>17</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F15" s="3">
         <v>17</v>
       </c>
-      <c r="G12" s="3">
-        <v>1</v>
-      </c>
-      <c r="H12" s="2">
+      <c r="G15" s="4">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3">
         <v>65</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I15" s="3">
         <v>3.82</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J15" s="3">
         <v>66.11</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K15" s="3">
         <v>3.89</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L15" s="3">
         <v>65.3</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M15" s="3">
         <v>3.84</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="B16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E16" s="3">
         <v>39</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F16" s="3">
         <v>39</v>
       </c>
-      <c r="G13" s="3">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2">
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3">
         <v>131.4</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I16" s="3">
         <v>3.37</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J16" s="3">
         <v>132.65</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K16" s="3">
         <v>3.4</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L16" s="3">
         <v>131.63999999999999</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M16" s="3">
         <v>3.38</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="B17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E17" s="3">
         <v>48</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F17" s="3">
         <v>48</v>
       </c>
-      <c r="G14" s="3">
-        <v>1</v>
-      </c>
-      <c r="H14" s="2">
+      <c r="G17" s="4">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3">
         <v>186.9</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I17" s="3">
         <v>3.89</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J17" s="3">
         <v>188.37</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K17" s="3">
         <v>3.92</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L17" s="3">
         <v>180.54</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M17" s="3">
         <v>3.76</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="18" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="3">
+        <v>84</v>
+      </c>
+      <c r="F18" s="3">
+        <v>84</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3">
+        <v>206</v>
+      </c>
+      <c r="I18" s="3">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="J18" s="3">
+        <v>206</v>
+      </c>
+      <c r="K18" s="3">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="L18" s="3">
+        <v>198.48</v>
+      </c>
+      <c r="M18" s="3">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="B19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D19" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E19" s="3">
         <v>84</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F19" s="3">
         <v>84</v>
       </c>
-      <c r="G15" s="3">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2">
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3">
         <v>347.6</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I19" s="3">
         <v>4.1399999999999997</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J19" s="3">
         <v>346.81</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K19" s="3">
         <v>4.13</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L19" s="3">
         <v>340.88</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M19" s="3">
         <v>4.0599999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="20" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="3">
+        <v>29</v>
+      </c>
+      <c r="F20" s="3">
+        <v>29</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3">
+        <v>45.69</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1.58</v>
+      </c>
+      <c r="J20" s="3">
+        <v>45.69</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1.58</v>
+      </c>
+      <c r="L20" s="3">
+        <v>43.79</v>
+      </c>
+      <c r="M20" s="3">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="B21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D21" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E21" s="3">
         <v>29</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F21" s="3">
         <v>29</v>
       </c>
-      <c r="G16" s="3">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2">
+      <c r="G21" s="4">
+        <v>1</v>
+      </c>
+      <c r="H21" s="3">
         <v>114</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I21" s="3">
         <v>3.93</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J21" s="3">
         <v>115.09</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K21" s="3">
         <v>3.97</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L21" s="3">
         <v>112.58</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M21" s="3">
         <v>3.88</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="3">
+        <v>62</v>
+      </c>
+      <c r="F22" s="3">
+        <v>62</v>
+      </c>
+      <c r="G22" s="4">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3">
+        <v>105.44</v>
+      </c>
+      <c r="I22" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="J22" s="3">
+        <v>105.44</v>
+      </c>
+      <c r="K22" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="L22" s="3">
+        <v>101.06</v>
+      </c>
+      <c r="M22" s="3">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="B23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D23" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E23" s="3">
         <v>62</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F23" s="3">
         <v>62</v>
       </c>
-      <c r="G17" s="3">
-        <v>1</v>
-      </c>
-      <c r="H17" s="2">
+      <c r="G23" s="4">
+        <v>1</v>
+      </c>
+      <c r="H23" s="3">
         <v>252.2</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I23" s="3">
         <v>4.07</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J23" s="3">
         <v>252.32</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K23" s="3">
         <v>4.07</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L23" s="3">
         <v>250.34</v>
       </c>
-      <c r="M17" s="2">
+      <c r="M23" s="3">
         <v>4.04</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="3">
+        <v>62</v>
+      </c>
+      <c r="F24" s="3">
+        <v>62</v>
+      </c>
+      <c r="G24" s="4">
+        <v>1</v>
+      </c>
+      <c r="H24" s="3">
+        <v>124.5</v>
+      </c>
+      <c r="I24" s="3">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="J24" s="3">
+        <v>124.5</v>
+      </c>
+      <c r="K24" s="3">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="L24" s="3">
+        <v>119.33</v>
+      </c>
+      <c r="M24" s="3">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="B25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D25" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E25" s="3">
         <v>62</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F25" s="3">
         <v>62</v>
       </c>
-      <c r="G18" s="3">
-        <v>1</v>
-      </c>
-      <c r="H18" s="2">
+      <c r="G25" s="4">
+        <v>1</v>
+      </c>
+      <c r="H25" s="3">
         <v>242.9</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I25" s="3">
         <v>3.92</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J25" s="3">
         <v>242.8</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K25" s="3">
         <v>3.92</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L25" s="3">
         <v>241.64</v>
       </c>
-      <c r="M18" s="2">
+      <c r="M25" s="3">
         <v>3.9</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="3">
+        <v>17</v>
+      </c>
+      <c r="F26" s="3">
+        <v>17</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1</v>
+      </c>
+      <c r="H26" s="3">
+        <v>31.18</v>
+      </c>
+      <c r="I26" s="3">
+        <v>1.83</v>
+      </c>
+      <c r="J26" s="3">
+        <v>31.18</v>
+      </c>
+      <c r="K26" s="3">
+        <v>1.83</v>
+      </c>
+      <c r="L26" s="3">
+        <v>29.89</v>
+      </c>
+      <c r="M26" s="3">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="B27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D27" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E27" s="3">
         <v>17</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F27" s="3">
         <v>17</v>
       </c>
-      <c r="G19" s="3">
-        <v>1</v>
-      </c>
-      <c r="H19" s="2">
+      <c r="G27" s="4">
+        <v>1</v>
+      </c>
+      <c r="H27" s="3">
         <v>68.599999999999994</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I27" s="3">
         <v>4.04</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J27" s="3">
         <v>68.52</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K27" s="3">
         <v>4.03</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L27" s="3">
         <v>68.14</v>
       </c>
-      <c r="M19" s="2">
+      <c r="M27" s="3">
         <v>4.01</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="B28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D28" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E28" s="3">
         <v>36</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F28" s="3">
         <v>36</v>
       </c>
-      <c r="G20" s="3">
-        <v>1</v>
-      </c>
-      <c r="H20" s="2">
+      <c r="G28" s="4">
+        <v>1</v>
+      </c>
+      <c r="H28" s="3">
         <v>122.4</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I28" s="3">
         <v>3.4</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J28" s="3">
         <v>124.04</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K28" s="3">
         <v>3.45</v>
       </c>
-      <c r="L20" s="2">
+      <c r="L28" s="3">
         <v>123.52</v>
       </c>
-      <c r="M20" s="2">
+      <c r="M28" s="3">
         <v>3.43</v>
       </c>
     </row>
